--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/10/seed4/result_data_RandomForest.xlsx
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.14500000000001</v>
+        <v>-13.2802</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.91400000000001</v>
+        <v>-21.9371</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.2569</v>
+        <v>-11.1312</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.3417</v>
+        <v>16.2242</v>
       </c>
     </row>
     <row r="16">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.26360000000002</v>
+        <v>-22.21990000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.84519999999999</v>
+        <v>-21.06459999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.712</v>
+        <v>-12.68720000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -887,13 +887,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.64759999999999</v>
+        <v>-21.78019999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.8156</v>
+        <v>-12.59979999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.00910000000001</v>
+        <v>-11.51110000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.47549999999999</v>
+        <v>-13.8248</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1080,13 +1080,13 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-13.5958</v>
+        <v>-13.1208</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.19809999999999</v>
+        <v>16.21249999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.77799999999999</v>
+        <v>16.79319999999998</v>
       </c>
     </row>
     <row r="45">
@@ -1301,13 +1301,13 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.85099999999999</v>
+        <v>-12.01499999999999</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.4096</v>
+        <v>17.34010000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.95840000000001</v>
+        <v>-13.9064</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.6788</v>
+        <v>16.6638</v>
       </c>
     </row>
     <row r="58">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>18.48080000000002</v>
+        <v>18.48610000000002</v>
       </c>
     </row>
     <row r="64">
@@ -1601,13 +1601,13 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.8982</v>
+        <v>-21.9132</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.9708</v>
+        <v>-11.9161</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1624,13 +1624,13 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-12.01859999999999</v>
+        <v>-11.9293</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.49930000000001</v>
+        <v>17.49070000000001</v>
       </c>
     </row>
     <row r="71">
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.28239999999999</v>
+        <v>-20.33839999999998</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.9926</v>
+        <v>-21.96579999999999</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1845,7 +1845,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.4678</v>
+        <v>-13.55169999999999</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.4606</v>
+        <v>16.4456</v>
       </c>
     </row>
     <row r="100">
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.5949</v>
+        <v>-13.4282</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
